--- a/excel/Data_loader_spline_full_onehot_R1.xlsx
+++ b/excel/Data_loader_spline_full_onehot_R1.xlsx
@@ -1,38 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python\strainsensor\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai Zhuo\Desktop\Python\strainsensor\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D832D4E-909E-4242-A941-B034F0B64829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="labels original" sheetId="8" r:id="rId1"/>
-    <sheet name="labels" sheetId="3" r:id="rId2"/>
+    <sheet name="points" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
     <sheet name="features" sheetId="2" r:id="rId4"/>
     <sheet name="features_d" sheetId="6" r:id="rId5"/>
     <sheet name="Substrate" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>CNT Mass Percentage</t>
   </si>
@@ -54,11 +47,14 @@
   <si>
     <t>2D</t>
   </si>
+  <si>
+    <t>END</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -434,7 +430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1287,18 +1283,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B1" s="4">
-        <v>0</v>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C1" s="4">
         <v>1</v>
@@ -2360,7 +2356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3120,7 +3116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3480,7 +3476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3579,7 +3575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/excel/Data_loader_spline_full_onehot_R1.xlsx
+++ b/excel/Data_loader_spline_full_onehot_R1.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai Zhuo\Desktop\Python\strainsensor\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D832D4E-909E-4242-A941-B034F0B64829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C064848B-D585-4201-B879-FBE8CE9AC867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="labels original" sheetId="8" r:id="rId1"/>
-    <sheet name="points" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
-    <sheet name="features" sheetId="2" r:id="rId4"/>
-    <sheet name="features_d" sheetId="6" r:id="rId5"/>
-    <sheet name="Substrate" sheetId="5" r:id="rId6"/>
+    <sheet name="gf20" sheetId="9" r:id="rId1"/>
+    <sheet name="labels original" sheetId="8" r:id="rId2"/>
+    <sheet name="points" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
+    <sheet name="features" sheetId="2" r:id="rId5"/>
+    <sheet name="features_d" sheetId="6" r:id="rId6"/>
+    <sheet name="Substrate" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>CNT Mass Percentage</t>
   </si>
@@ -430,6 +431,823 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1947C92-690E-4EFA-A48C-57F520199439}">
+  <dimension ref="A1:U20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>4400</v>
+      </c>
+      <c r="C2">
+        <v>4400.0000000000127</v>
+      </c>
+      <c r="D2">
+        <v>2412.796732566776</v>
+      </c>
+      <c r="E2">
+        <v>2412.7967325667041</v>
+      </c>
+      <c r="F2">
+        <v>2412.7967325667041</v>
+      </c>
+      <c r="G2">
+        <v>2412.7967325665618</v>
+      </c>
+      <c r="H2">
+        <v>2412.7967325667041</v>
+      </c>
+      <c r="I2">
+        <v>19952.198695602019</v>
+      </c>
+      <c r="J2">
+        <v>19952.19869560287</v>
+      </c>
+      <c r="K2">
+        <v>19952.19869560287</v>
+      </c>
+      <c r="L2">
+        <v>19952.198695601739</v>
+      </c>
+      <c r="M2">
+        <v>19952.198695601739</v>
+      </c>
+      <c r="N2">
+        <v>19952.198695601739</v>
+      </c>
+      <c r="O2">
+        <v>51143.334743334213</v>
+      </c>
+      <c r="P2">
+        <v>51143.334743335341</v>
+      </c>
+      <c r="Q2">
+        <v>51143.334743333071</v>
+      </c>
+      <c r="R2">
+        <v>51143.334743333071</v>
+      </c>
+      <c r="S2">
+        <v>51143.334743333071</v>
+      </c>
+      <c r="T2">
+        <v>51143.334743333071</v>
+      </c>
+      <c r="U2">
+        <v>51143.334743333071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>511.86981186981183</v>
+      </c>
+      <c r="C3">
+        <v>511.86981186980063</v>
+      </c>
+      <c r="D3">
+        <v>511.86981186980063</v>
+      </c>
+      <c r="E3">
+        <v>4468.8339623318998</v>
+      </c>
+      <c r="F3">
+        <v>4468.8339623320417</v>
+      </c>
+      <c r="G3">
+        <v>5839.7683397680566</v>
+      </c>
+      <c r="H3">
+        <v>5839.7683397686251</v>
+      </c>
+      <c r="I3">
+        <v>8167.6641676642703</v>
+      </c>
+      <c r="J3">
+        <v>8167.6641676642703</v>
+      </c>
+      <c r="K3">
+        <v>11149.829300341031</v>
+      </c>
+      <c r="L3">
+        <v>11149.829300341031</v>
+      </c>
+      <c r="M3">
+        <v>13375.38407538432</v>
+      </c>
+      <c r="N3">
+        <v>13375.38407538432</v>
+      </c>
+      <c r="O3">
+        <v>10215.14371514513</v>
+      </c>
+      <c r="P3">
+        <v>10215.14371514513</v>
+      </c>
+      <c r="Q3">
+        <v>41416.8311663434</v>
+      </c>
+      <c r="R3">
+        <v>41416.8311663434</v>
+      </c>
+      <c r="S3">
+        <v>28486.675486678909</v>
+      </c>
+      <c r="T3">
+        <v>28486.675486683449</v>
+      </c>
+      <c r="U3">
+        <v>28486.675486683449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>108.24760824760919</v>
+      </c>
+      <c r="E4">
+        <v>402.06220206229659</v>
+      </c>
+      <c r="F4">
+        <v>1082.471935056333</v>
+      </c>
+      <c r="G4">
+        <v>1762.8881628883159</v>
+      </c>
+      <c r="H4">
+        <v>1530.9291309290529</v>
+      </c>
+      <c r="I4">
+        <v>2659.788680422253</v>
+      </c>
+      <c r="J4">
+        <v>4252.5816525801474</v>
+      </c>
+      <c r="K4">
+        <v>6757.7386577374909</v>
+      </c>
+      <c r="L4">
+        <v>4932.99463299536</v>
+      </c>
+      <c r="M4">
+        <v>8845.3696453734665</v>
+      </c>
+      <c r="N4">
+        <v>11288.637222728539</v>
+      </c>
+      <c r="O4">
+        <v>8041.2449412460774</v>
+      </c>
+      <c r="P4">
+        <v>17938.16213817081</v>
+      </c>
+      <c r="Q4">
+        <v>25206.135287735378</v>
+      </c>
+      <c r="R4">
+        <v>49097.913651057752</v>
+      </c>
+      <c r="S4">
+        <v>128505.2831553548</v>
+      </c>
+      <c r="T4">
+        <v>173118.47009088521</v>
+      </c>
+      <c r="U4">
+        <v>173118.47009084889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>18.072318072318069</v>
+      </c>
+      <c r="C5">
+        <v>18.072318072319678</v>
+      </c>
+      <c r="D5">
+        <v>72.289272289287609</v>
+      </c>
+      <c r="E5">
+        <v>180.72263855474449</v>
+      </c>
+      <c r="F5">
+        <v>867.46806506376117</v>
+      </c>
+      <c r="G5">
+        <v>1337.3469253059509</v>
+      </c>
+      <c r="H5">
+        <v>1951.809151808561</v>
+      </c>
+      <c r="I5">
+        <v>2963.858363858094</v>
+      </c>
+      <c r="J5">
+        <v>3759.0397590417979</v>
+      </c>
+      <c r="K5">
+        <v>3542.1722421745021</v>
+      </c>
+      <c r="L5">
+        <v>8801.2135012195358</v>
+      </c>
+      <c r="M5">
+        <v>4012.040175921356</v>
+      </c>
+      <c r="N5">
+        <v>14909.60868079128</v>
+      </c>
+      <c r="O5">
+        <v>17891.557254229159</v>
+      </c>
+      <c r="P5">
+        <v>32801.188449420813</v>
+      </c>
+      <c r="Q5">
+        <v>36506.06060602513</v>
+      </c>
+      <c r="R5">
+        <v>100210.79324451421</v>
+      </c>
+      <c r="S5">
+        <v>145933.8808337634</v>
+      </c>
+      <c r="T5">
+        <v>271084.2018576659</v>
+      </c>
+      <c r="U5">
+        <v>292770.93796423287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3154.6423546423548</v>
+      </c>
+      <c r="C6">
+        <v>3154.6423546423339</v>
+      </c>
+      <c r="D6">
+        <v>5273.1854536290257</v>
+      </c>
+      <c r="E6">
+        <v>5273.1854536290257</v>
+      </c>
+      <c r="F6">
+        <v>5288.6647886646188</v>
+      </c>
+      <c r="G6">
+        <v>5288.6647886646188</v>
+      </c>
+      <c r="H6">
+        <v>12030.939930939439</v>
+      </c>
+      <c r="I6">
+        <v>12092.759514480351</v>
+      </c>
+      <c r="J6">
+        <v>12092.759514480351</v>
+      </c>
+      <c r="K6">
+        <v>21324.76352476715</v>
+      </c>
+      <c r="L6">
+        <v>21324.76352476715</v>
+      </c>
+      <c r="M6">
+        <v>28608.276108284372</v>
+      </c>
+      <c r="N6">
+        <v>28608.276108279821</v>
+      </c>
+      <c r="O6">
+        <v>89845.181109649275</v>
+      </c>
+      <c r="P6">
+        <v>75618.632118648748</v>
+      </c>
+      <c r="Q6">
+        <v>75618.632118639653</v>
+      </c>
+      <c r="R6">
+        <v>238299.20739925001</v>
+      </c>
+      <c r="S6">
+        <v>238299.20739917719</v>
+      </c>
+      <c r="T6">
+        <v>280205.62528872688</v>
+      </c>
+      <c r="U6">
+        <v>280205.6252886905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1515.0015150015149</v>
+      </c>
+      <c r="C7">
+        <v>1515.0015150015149</v>
+      </c>
+      <c r="D7">
+        <v>3794.9924100149701</v>
+      </c>
+      <c r="E7">
+        <v>3794.9924100149701</v>
+      </c>
+      <c r="F7">
+        <v>3585.003585003506</v>
+      </c>
+      <c r="G7">
+        <v>3585.003585003506</v>
+      </c>
+      <c r="H7">
+        <v>5985.0059850060688</v>
+      </c>
+      <c r="I7">
+        <v>3854.9922900153888</v>
+      </c>
+      <c r="J7">
+        <v>3854.9922900153888</v>
+      </c>
+      <c r="K7">
+        <v>10380.01038001198</v>
+      </c>
+      <c r="L7">
+        <v>10380.01038001312</v>
+      </c>
+      <c r="M7">
+        <v>12075.01207501309</v>
+      </c>
+      <c r="N7">
+        <v>12075.01207501309</v>
+      </c>
+      <c r="O7">
+        <v>14204.9715900589</v>
+      </c>
+      <c r="P7">
+        <v>40755.040755047958</v>
+      </c>
+      <c r="Q7">
+        <v>40755.040755047958</v>
+      </c>
+      <c r="R7">
+        <v>12900.012900017829</v>
+      </c>
+      <c r="S7">
+        <v>12900.012900008731</v>
+      </c>
+      <c r="T7">
+        <v>31949.93610012261</v>
+      </c>
+      <c r="U7">
+        <v>31949.93610011807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3038.588138588138</v>
+      </c>
+      <c r="C8">
+        <v>5594.8442103114357</v>
+      </c>
+      <c r="D8">
+        <v>6810.2963102961667</v>
+      </c>
+      <c r="E8">
+        <v>9414.8002147994703</v>
+      </c>
+      <c r="F8">
+        <v>8787.763924472074</v>
+      </c>
+      <c r="G8">
+        <v>18434.101934103641</v>
+      </c>
+      <c r="H8">
+        <v>20836.033636037431</v>
+      </c>
+      <c r="I8">
+        <v>18038.549322905059</v>
+      </c>
+      <c r="J8">
+        <v>25466.26346626454</v>
+      </c>
+      <c r="K8">
+        <v>32315.14461513143</v>
+      </c>
+      <c r="L8">
+        <v>56623.850923833743</v>
+      </c>
+      <c r="M8">
+        <v>28938.93553891758</v>
+      </c>
+      <c r="N8">
+        <v>43987.050525884108</v>
+      </c>
+      <c r="O8">
+        <v>50836.063636052131</v>
+      </c>
+      <c r="P8">
+        <v>79196.220596204512</v>
+      </c>
+      <c r="Q8">
+        <v>71382.493834989873</v>
+      </c>
+      <c r="R8">
+        <v>160128.77752873459</v>
+      </c>
+      <c r="S8">
+        <v>170739.7206396854</v>
+      </c>
+      <c r="T8">
+        <v>123472.4219552299</v>
+      </c>
+      <c r="U8">
+        <v>505466.74316698051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2300</v>
+      </c>
+      <c r="C9">
+        <v>2300.0000000000041</v>
+      </c>
+      <c r="D9">
+        <v>3172.0729601042308</v>
+      </c>
+      <c r="E9">
+        <v>3172.0729601042308</v>
+      </c>
+      <c r="F9">
+        <v>3172.0729601041598</v>
+      </c>
+      <c r="G9">
+        <v>3172.072960104088</v>
+      </c>
+      <c r="H9">
+        <v>3172.072960104088</v>
+      </c>
+      <c r="I9">
+        <v>16910.413879171811</v>
+      </c>
+      <c r="J9">
+        <v>16910.413879172102</v>
+      </c>
+      <c r="K9">
+        <v>16910.413879172102</v>
+      </c>
+      <c r="L9">
+        <v>16910.41387917153</v>
+      </c>
+      <c r="M9">
+        <v>16910.413879172669</v>
+      </c>
+      <c r="N9">
+        <v>16910.41387917153</v>
+      </c>
+      <c r="O9">
+        <v>37447.79844779714</v>
+      </c>
+      <c r="P9">
+        <v>37447.798447798283</v>
+      </c>
+      <c r="Q9">
+        <v>37447.79844779714</v>
+      </c>
+      <c r="R9">
+        <v>37447.79844779941</v>
+      </c>
+      <c r="S9">
+        <v>37447.79844779714</v>
+      </c>
+      <c r="T9">
+        <v>37447.79844779714</v>
+      </c>
+      <c r="U9">
+        <v>37447.79844779714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>16.71301671301671</v>
+      </c>
+      <c r="C10">
+        <v>16.713316713312661</v>
+      </c>
+      <c r="D10">
+        <v>50.139350139364318</v>
+      </c>
+      <c r="E10">
+        <v>133.7043325913001</v>
+      </c>
+      <c r="F10">
+        <v>392.7568144862903</v>
+      </c>
+      <c r="G10">
+        <v>743.73121253742625</v>
+      </c>
+      <c r="H10">
+        <v>1487.466587466884</v>
+      </c>
+      <c r="I10">
+        <v>2640.6710406723728</v>
+      </c>
+      <c r="J10">
+        <v>2481.8964818985019</v>
+      </c>
+      <c r="K10">
+        <v>4470.7498646266686</v>
+      </c>
+      <c r="L10">
+        <v>543.17604317702717</v>
+      </c>
+      <c r="M10">
+        <v>7604.4530477747676</v>
+      </c>
+      <c r="N10">
+        <v>9359.3267703272431</v>
+      </c>
+      <c r="O10">
+        <v>10947.06967644925</v>
+      </c>
+      <c r="P10">
+        <v>12075.202762389379</v>
+      </c>
+      <c r="Q10">
+        <v>30459.640509616289</v>
+      </c>
+      <c r="R10">
+        <v>26657.36822129475</v>
+      </c>
+      <c r="S10">
+        <v>63501.456201411202</v>
+      </c>
+      <c r="T10">
+        <v>28412.242093836539</v>
+      </c>
+      <c r="U10">
+        <v>55153.258453210583</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>11.43510577472841</v>
+      </c>
+      <c r="C11">
+        <v>11.435105774728481</v>
+      </c>
+      <c r="D11">
+        <v>11.435105774728621</v>
+      </c>
+      <c r="E11">
+        <v>11.43510577472806</v>
+      </c>
+      <c r="F11">
+        <v>11.435105774728621</v>
+      </c>
+      <c r="G11">
+        <v>618.85299441985842</v>
+      </c>
+      <c r="H11">
+        <v>618.85299441985171</v>
+      </c>
+      <c r="I11">
+        <v>618.85299441986058</v>
+      </c>
+      <c r="J11">
+        <v>618.85299441986058</v>
+      </c>
+      <c r="K11">
+        <v>618.85299441982511</v>
+      </c>
+      <c r="L11">
+        <v>8686.9888756679356</v>
+      </c>
+      <c r="M11">
+        <v>8686.9888756679356</v>
+      </c>
+      <c r="N11">
+        <v>8686.9888756680775</v>
+      </c>
+      <c r="O11">
+        <v>8686.9888756680775</v>
+      </c>
+      <c r="P11">
+        <v>8686.9888756677938</v>
+      </c>
+      <c r="Q11">
+        <v>68949.05660377162</v>
+      </c>
+      <c r="R11">
+        <v>96702.488378450653</v>
+      </c>
+      <c r="S11">
+        <v>96702.488378450653</v>
+      </c>
+      <c r="T11">
+        <v>96702.488378450653</v>
+      </c>
+      <c r="U11">
+        <v>96702.488378450653</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>8290.917490917489</v>
+      </c>
+      <c r="C12">
+        <v>8290.9174909175217</v>
+      </c>
+      <c r="D12">
+        <v>8290.9174909174508</v>
+      </c>
+      <c r="E12">
+        <v>8290.9174909173089</v>
+      </c>
+      <c r="F12">
+        <v>8290.9174909173089</v>
+      </c>
+      <c r="G12">
+        <v>64951.385097228347</v>
+      </c>
+      <c r="H12">
+        <v>64951.385097228922</v>
+      </c>
+      <c r="I12">
+        <v>64951.385097228922</v>
+      </c>
+      <c r="J12">
+        <v>64951.385097228922</v>
+      </c>
+      <c r="K12">
+        <v>64951.385097228922</v>
+      </c>
+      <c r="L12">
+        <v>131575.88927588679</v>
+      </c>
+      <c r="M12">
+        <v>131575.88927588219</v>
+      </c>
+      <c r="N12">
+        <v>131575.8892758913</v>
+      </c>
+      <c r="O12">
+        <v>131575.88927588219</v>
+      </c>
+      <c r="P12">
+        <v>131575.88927588219</v>
+      </c>
+      <c r="Q12">
+        <v>49317272.726998784</v>
+      </c>
+      <c r="R12">
+        <v>37355196.22170832</v>
+      </c>
+      <c r="S12">
+        <v>37355196.22170832</v>
+      </c>
+      <c r="T12">
+        <v>37355196.22170832</v>
+      </c>
+      <c r="U12">
+        <v>37355196.22170832</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V20"/>
   <sheetViews>
@@ -1282,11 +2100,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2355,7 +3173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T12"/>
   <sheetViews>
@@ -3115,7 +3933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
@@ -3475,7 +4293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -3574,7 +4392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/excel/Data_loader_spline_full_onehot_R1.xlsx
+++ b/excel/Data_loader_spline_full_onehot_R1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai Zhuo\Desktop\Python\strainsensor\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C064848B-D585-4201-B879-FBE8CE9AC867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6191D4AA-08A1-4D8E-804C-5E59910E6A34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>CNT Mass Percentage</t>
   </si>
@@ -432,112 +432,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1947C92-690E-4EFA-A48C-57F520199439}">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B1" s="4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4">
         <v>1</v>
       </c>
-      <c r="C1" s="4">
+      <c r="D1" s="4">
         <v>2</v>
       </c>
-      <c r="D1" s="4">
+      <c r="E1" s="4">
         <v>3</v>
       </c>
-      <c r="E1" s="4">
+      <c r="F1" s="4">
         <v>4</v>
       </c>
-      <c r="F1" s="4">
+      <c r="G1" s="4">
         <v>5</v>
       </c>
-      <c r="G1" s="4">
+      <c r="H1" s="4">
         <v>6</v>
       </c>
-      <c r="H1" s="4">
+      <c r="I1" s="4">
         <v>7</v>
       </c>
-      <c r="I1" s="4">
+      <c r="J1" s="4">
         <v>8</v>
       </c>
-      <c r="J1" s="4">
+      <c r="K1" s="4">
         <v>9</v>
       </c>
-      <c r="K1" s="4">
+      <c r="L1" s="4">
         <v>10</v>
       </c>
-      <c r="L1" s="4">
+      <c r="M1" s="4">
         <v>11</v>
       </c>
-      <c r="M1" s="4">
+      <c r="N1" s="4">
         <v>12</v>
       </c>
-      <c r="N1" s="4">
+      <c r="O1" s="4">
         <v>13</v>
       </c>
-      <c r="O1" s="4">
+      <c r="P1" s="4">
         <v>14</v>
       </c>
-      <c r="P1" s="4">
+      <c r="Q1" s="4">
         <v>15</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="R1" s="4">
         <v>16</v>
       </c>
-      <c r="R1" s="4">
+      <c r="S1" s="4">
         <v>17</v>
       </c>
-      <c r="S1" s="4">
+      <c r="T1" s="4">
         <v>18</v>
       </c>
-      <c r="T1" s="4">
+      <c r="U1" s="4">
         <v>19</v>
       </c>
-      <c r="U1" s="4">
+      <c r="V1" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
         <v>4400</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>4400.0000000000127</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2412.796732566776</v>
-      </c>
-      <c r="E2">
-        <v>2412.7967325667041</v>
       </c>
       <c r="F2">
         <v>2412.7967325667041</v>
       </c>
       <c r="G2">
+        <v>2412.7967325667041</v>
+      </c>
+      <c r="H2">
         <v>2412.7967325665618</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2412.7967325667041</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>19952.198695602019</v>
-      </c>
-      <c r="J2">
-        <v>19952.19869560287</v>
       </c>
       <c r="K2">
         <v>19952.19869560287</v>
       </c>
       <c r="L2">
-        <v>19952.198695601739</v>
+        <v>19952.19869560287</v>
       </c>
       <c r="M2">
         <v>19952.198695601739</v>
@@ -546,13 +549,13 @@
         <v>19952.198695601739</v>
       </c>
       <c r="O2">
+        <v>19952.198695601739</v>
+      </c>
+      <c r="P2">
         <v>51143.334743334213</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>51143.334743335341</v>
-      </c>
-      <c r="Q2">
-        <v>51143.334743333071</v>
       </c>
       <c r="R2">
         <v>51143.334743333071</v>
@@ -566,454 +569,475 @@
       <c r="U2">
         <v>51143.334743333071</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V2">
+        <v>51143.334743333071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
         <v>511.86981186981183</v>
-      </c>
-      <c r="C3">
-        <v>511.86981186980063</v>
       </c>
       <c r="D3">
         <v>511.86981186980063</v>
       </c>
       <c r="E3">
+        <v>511.86981186980063</v>
+      </c>
+      <c r="F3">
         <v>4468.8339623318998</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>4468.8339623320417</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>5839.7683397680566</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>5839.7683397686251</v>
-      </c>
-      <c r="I3">
-        <v>8167.6641676642703</v>
       </c>
       <c r="J3">
         <v>8167.6641676642703</v>
       </c>
       <c r="K3">
-        <v>11149.829300341031</v>
+        <v>8167.6641676642703</v>
       </c>
       <c r="L3">
         <v>11149.829300341031</v>
       </c>
       <c r="M3">
-        <v>13375.38407538432</v>
+        <v>11149.829300341031</v>
       </c>
       <c r="N3">
         <v>13375.38407538432</v>
       </c>
       <c r="O3">
-        <v>10215.14371514513</v>
+        <v>13375.38407538432</v>
       </c>
       <c r="P3">
         <v>10215.14371514513</v>
       </c>
       <c r="Q3">
-        <v>41416.8311663434</v>
+        <v>10215.14371514513</v>
       </c>
       <c r="R3">
         <v>41416.8311663434</v>
       </c>
       <c r="S3">
+        <v>41416.8311663434</v>
+      </c>
+      <c r="T3">
         <v>28486.675486678909</v>
-      </c>
-      <c r="T3">
-        <v>28486.675486683449</v>
       </c>
       <c r="U3">
         <v>28486.675486683449</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V3">
+        <v>28486.675486683449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>108.24760824760919</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>402.06220206229659</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1082.471935056333</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1762.8881628883159</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1530.9291309290529</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2659.788680422253</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>4252.5816525801474</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>6757.7386577374909</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>4932.99463299536</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>8845.3696453734665</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>11288.637222728539</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>8041.2449412460774</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>17938.16213817081</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>25206.135287735378</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>49097.913651057752</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>128505.2831553548</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>173118.47009088521</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>173118.47009084889</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>166.66667000000001</v>
+      </c>
+      <c r="C5">
         <v>18.072318072318069</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>18.072318072319678</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>72.289272289287609</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>180.72263855474449</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>867.46806506376117</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1337.3469253059509</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1951.809151808561</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2963.858363858094</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>3759.0397590417979</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>3542.1722421745021</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>8801.2135012195358</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>4012.040175921356</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>14909.60868079128</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>17891.557254229159</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>32801.188449420813</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>36506.06060602513</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>100210.79324451421</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>145933.8808337634</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>271084.2018576659</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>292770.93796423287</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>36.666670000000003</v>
+      </c>
+      <c r="C6">
         <v>3154.6423546423548</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>3154.6423546423339</v>
-      </c>
-      <c r="D6">
-        <v>5273.1854536290257</v>
       </c>
       <c r="E6">
         <v>5273.1854536290257</v>
       </c>
       <c r="F6">
-        <v>5288.6647886646188</v>
+        <v>5273.1854536290257</v>
       </c>
       <c r="G6">
         <v>5288.6647886646188</v>
       </c>
       <c r="H6">
+        <v>5288.6647886646188</v>
+      </c>
+      <c r="I6">
         <v>12030.939930939439</v>
-      </c>
-      <c r="I6">
-        <v>12092.759514480351</v>
       </c>
       <c r="J6">
         <v>12092.759514480351</v>
       </c>
       <c r="K6">
-        <v>21324.76352476715</v>
+        <v>12092.759514480351</v>
       </c>
       <c r="L6">
         <v>21324.76352476715</v>
       </c>
       <c r="M6">
+        <v>21324.76352476715</v>
+      </c>
+      <c r="N6">
         <v>28608.276108284372</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>28608.276108279821</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>89845.181109649275</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>75618.632118648748</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>75618.632118639653</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>238299.20739925001</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>238299.20739917719</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>280205.62528872688</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>280205.6252886905</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1515.0015150015149</v>
+        <v>36.666670000000003</v>
       </c>
       <c r="C7">
         <v>1515.0015150015149</v>
       </c>
       <c r="D7">
-        <v>3794.9924100149701</v>
+        <v>1515.0015150015149</v>
       </c>
       <c r="E7">
         <v>3794.9924100149701</v>
       </c>
       <c r="F7">
-        <v>3585.003585003506</v>
+        <v>3794.9924100149701</v>
       </c>
       <c r="G7">
         <v>3585.003585003506</v>
       </c>
       <c r="H7">
+        <v>3585.003585003506</v>
+      </c>
+      <c r="I7">
         <v>5985.0059850060688</v>
-      </c>
-      <c r="I7">
-        <v>3854.9922900153888</v>
       </c>
       <c r="J7">
         <v>3854.9922900153888</v>
       </c>
       <c r="K7">
+        <v>3854.9922900153888</v>
+      </c>
+      <c r="L7">
         <v>10380.01038001198</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>10380.01038001312</v>
-      </c>
-      <c r="M7">
-        <v>12075.01207501309</v>
       </c>
       <c r="N7">
         <v>12075.01207501309</v>
       </c>
       <c r="O7">
+        <v>12075.01207501309</v>
+      </c>
+      <c r="P7">
         <v>14204.9715900589</v>
-      </c>
-      <c r="P7">
-        <v>40755.040755047958</v>
       </c>
       <c r="Q7">
         <v>40755.040755047958</v>
       </c>
       <c r="R7">
+        <v>40755.040755047958</v>
+      </c>
+      <c r="S7">
         <v>12900.012900017829</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>12900.012900008731</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>31949.93610012261</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>31949.93610011807</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>70</v>
+      </c>
+      <c r="C8">
         <v>3038.588138588138</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>5594.8442103114357</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>6810.2963102961667</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>9414.8002147994703</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>8787.763924472074</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>18434.101934103641</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>20836.033636037431</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>18038.549322905059</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>25466.26346626454</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>32315.14461513143</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>56623.850923833743</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>28938.93553891758</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>43987.050525884108</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>50836.063636052131</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>79196.220596204512</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>71382.493834989873</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>160128.77752873459</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>170739.7206396854</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>123472.4219552299</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>505466.74316698051</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
         <v>2300</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>2300.0000000000041</v>
-      </c>
-      <c r="D9">
-        <v>3172.0729601042308</v>
       </c>
       <c r="E9">
         <v>3172.0729601042308</v>
       </c>
       <c r="F9">
+        <v>3172.0729601042308</v>
+      </c>
+      <c r="G9">
         <v>3172.0729601041598</v>
-      </c>
-      <c r="G9">
-        <v>3172.072960104088</v>
       </c>
       <c r="H9">
         <v>3172.072960104088</v>
       </c>
       <c r="I9">
+        <v>3172.072960104088</v>
+      </c>
+      <c r="J9">
         <v>16910.413879171811</v>
-      </c>
-      <c r="J9">
-        <v>16910.413879172102</v>
       </c>
       <c r="K9">
         <v>16910.413879172102</v>
       </c>
       <c r="L9">
+        <v>16910.413879172102</v>
+      </c>
+      <c r="M9">
         <v>16910.41387917153</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>16910.413879172669</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>16910.41387917153</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>37447.79844779714</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>37447.798447798283</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>37447.79844779714</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>37447.79844779941</v>
-      </c>
-      <c r="S9">
-        <v>37447.79844779714</v>
       </c>
       <c r="T9">
         <v>37447.79844779714</v>
@@ -1021,126 +1045,132 @@
       <c r="U9">
         <v>37447.79844779714</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V9">
+        <v>37447.79844779714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10">
+        <v>213.33332999999999</v>
+      </c>
+      <c r="C10">
         <v>16.71301671301671</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>16.713316713312661</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>50.139350139364318</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>133.7043325913001</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>392.7568144862903</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>743.73121253742625</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1487.466587466884</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>2640.6710406723728</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>2481.8964818985019</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>4470.7498646266686</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>543.17604317702717</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>7604.4530477747676</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>9359.3267703272431</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>10947.06967644925</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>12075.202762389379</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>30459.640509616289</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>26657.36822129475</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>63501.456201411202</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>28412.242093836539</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>55153.258453210583</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11">
+        <v>13.3</v>
+      </c>
+      <c r="C11">
         <v>11.43510577472841</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>11.435105774728481</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>11.435105774728621</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>11.43510577472806</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>11.435105774728621</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>618.85299441985842</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>618.85299441985171</v>
-      </c>
-      <c r="I11">
-        <v>618.85299441986058</v>
       </c>
       <c r="J11">
         <v>618.85299441986058</v>
       </c>
       <c r="K11">
+        <v>618.85299441986058</v>
+      </c>
+      <c r="L11">
         <v>618.85299441982511</v>
-      </c>
-      <c r="L11">
-        <v>8686.9888756679356</v>
       </c>
       <c r="M11">
         <v>8686.9888756679356</v>
       </c>
       <c r="N11">
-        <v>8686.9888756680775</v>
+        <v>8686.9888756679356</v>
       </c>
       <c r="O11">
         <v>8686.9888756680775</v>
       </c>
       <c r="P11">
+        <v>8686.9888756680775</v>
+      </c>
+      <c r="Q11">
         <v>8686.9888756677938</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>68949.05660377162</v>
-      </c>
-      <c r="R11">
-        <v>96702.488378450653</v>
       </c>
       <c r="S11">
         <v>96702.488378450653</v>
@@ -1151,31 +1181,34 @@
       <c r="U11">
         <v>96702.488378450653</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11">
+        <v>96702.488378450653</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12">
+        <v>13.33333</v>
+      </c>
+      <c r="C12">
         <v>8290.917490917489</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>8290.9174909175217</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>8290.9174909174508</v>
-      </c>
-      <c r="E12">
-        <v>8290.9174909173089</v>
       </c>
       <c r="F12">
         <v>8290.9174909173089</v>
       </c>
       <c r="G12">
+        <v>8290.9174909173089</v>
+      </c>
+      <c r="H12">
         <v>64951.385097228347</v>
-      </c>
-      <c r="H12">
-        <v>64951.385097228922</v>
       </c>
       <c r="I12">
         <v>64951.385097228922</v>
@@ -1187,25 +1220,25 @@
         <v>64951.385097228922</v>
       </c>
       <c r="L12">
+        <v>64951.385097228922</v>
+      </c>
+      <c r="M12">
         <v>131575.88927588679</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>131575.88927588219</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>131575.8892758913</v>
-      </c>
-      <c r="O12">
-        <v>131575.88927588219</v>
       </c>
       <c r="P12">
         <v>131575.88927588219</v>
       </c>
       <c r="Q12">
+        <v>131575.88927588219</v>
+      </c>
+      <c r="R12">
         <v>49317272.726998784</v>
-      </c>
-      <c r="R12">
-        <v>37355196.22170832</v>
       </c>
       <c r="S12">
         <v>37355196.22170832</v>
@@ -1216,17 +1249,20 @@
       <c r="U12">
         <v>37355196.22170832</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12">
+        <v>37355196.22170832</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -2105,7 +2141,7 @@
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/excel/Data_loader_spline_full_onehot_R1.xlsx
+++ b/excel/Data_loader_spline_full_onehot_R1.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai Zhuo\Desktop\Python\strainsensor\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6191D4AA-08A1-4D8E-804C-5E59910E6A34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26D6223-D8B8-4AAE-9A65-EEF87E9A8E86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gf20" sheetId="9" r:id="rId1"/>
-    <sheet name="labels original" sheetId="8" r:id="rId2"/>
-    <sheet name="points" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
-    <sheet name="features" sheetId="2" r:id="rId5"/>
-    <sheet name="features_d" sheetId="6" r:id="rId6"/>
-    <sheet name="Substrate" sheetId="5" r:id="rId7"/>
+    <sheet name="cutoff" sheetId="10" r:id="rId2"/>
+    <sheet name="labels original" sheetId="8" r:id="rId3"/>
+    <sheet name="points" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="features" sheetId="2" r:id="rId6"/>
+    <sheet name="features_d" sheetId="6" r:id="rId7"/>
+    <sheet name="Substrate" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>CNT Mass Percentage</t>
   </si>
@@ -51,12 +52,18 @@
   <si>
     <t>END</t>
   </si>
+  <si>
+    <t>cut=10</t>
+  </si>
+  <si>
+    <t>cut=100</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +82,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -130,6 +144,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,7 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1947C92-690E-4EFA-A48C-57F520199439}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1284,6 +1299,187 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD80297-06E8-4687-95AF-96392F10D14E}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3.3333300000000001</v>
+      </c>
+      <c r="D3" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6.6666699999999999</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3.3333300000000001</v>
+      </c>
+      <c r="C5">
+        <v>23.33333</v>
+      </c>
+      <c r="D5">
+        <v>166.66667000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3.3333300000000001</v>
+      </c>
+      <c r="D6" s="7">
+        <v>36.666670000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>3.3333300000000001</v>
+      </c>
+      <c r="D7" s="7">
+        <v>36.666670000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3.3333300000000001</v>
+      </c>
+      <c r="D8" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3.3333300000000001</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>213.33332999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>13.33333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V20"/>
   <sheetViews>
@@ -2136,7 +2332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V20"/>
   <sheetViews>
@@ -3209,7 +3405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T12"/>
   <sheetViews>
@@ -3969,7 +4165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
@@ -4329,7 +4525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -4428,7 +4624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/excel/Data_loader_spline_full_onehot_R1.xlsx
+++ b/excel/Data_loader_spline_full_onehot_R1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai Zhuo\Desktop\Python\strainsensor\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26D6223-D8B8-4AAE-9A65-EEF87E9A8E86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B23214-C28E-42A9-BF34-885CD32E304F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gf20" sheetId="9" r:id="rId1"/>
     <sheet name="cutoff" sheetId="10" r:id="rId2"/>
-    <sheet name="labels original" sheetId="8" r:id="rId3"/>
-    <sheet name="points" sheetId="3" r:id="rId4"/>
+    <sheet name="points" sheetId="8" r:id="rId3"/>
+    <sheet name="pointsarc" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
     <sheet name="features" sheetId="2" r:id="rId6"/>
     <sheet name="features_d" sheetId="6" r:id="rId7"/>
@@ -1302,7 +1302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD80297-06E8-4687-95AF-96392F10D14E}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -1483,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" activeCellId="1" sqref="D34 F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2415,83 +2415,83 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <f>ASINH('labels original'!C2)</f>
+        <f>ASINH(points!C2)</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>ASINH('labels original'!D2)</f>
+        <f>ASINH(points!D2)</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>ASINH('labels original'!E2)</f>
+        <f>ASINH(points!E2)</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>ASINH('labels original'!F2)</f>
+        <f>ASINH(points!F2)</f>
         <v>3.7309866453307579</v>
       </c>
       <c r="G2">
-        <f>ASINH('labels original'!G2)</f>
+        <f>ASINH(points!G2)</f>
         <v>4.5661987302762101</v>
       </c>
       <c r="H2">
-        <f>ASINH('labels original'!H2)</f>
+        <f>ASINH(points!H2)</f>
         <v>5.1256872083934448</v>
       </c>
       <c r="I2">
-        <f>ASINH('labels original'!I2)</f>
+        <f>ASINH(points!I2)</f>
         <v>5.576218635453154</v>
       </c>
       <c r="J2">
-        <f>ASINH('labels original'!J2)</f>
+        <f>ASINH(points!J2)</f>
         <v>5.9645032507907985</v>
       </c>
       <c r="K2">
-        <f>ASINH('labels original'!K2)</f>
+        <f>ASINH(points!K2)</f>
         <v>6.3060296651513905</v>
       </c>
       <c r="L2">
-        <f>ASINH('labels original'!L2)</f>
+        <f>ASINH(points!L2)</f>
         <v>6.6092502980960814</v>
       </c>
       <c r="M2">
-        <f>ASINH('labels original'!M2)</f>
+        <f>ASINH(points!M2)</f>
         <v>6.8812656765537543</v>
       </c>
       <c r="N2">
-        <f>ASINH('labels original'!N2)</f>
+        <f>ASINH(points!N2)</f>
         <v>7.1276738809554452</v>
       </c>
       <c r="O2">
-        <f>ASINH('labels original'!O2)</f>
+        <f>ASINH(points!O2)</f>
         <v>7.3528212613265129</v>
       </c>
       <c r="P2">
-        <f>ASINH('labels original'!P2)</f>
+        <f>ASINH(points!P2)</f>
         <v>7.560063511681431</v>
       </c>
       <c r="Q2">
-        <f>ASINH('labels original'!Q2)</f>
+        <f>ASINH(points!Q2)</f>
         <v>7.7505223323492283</v>
       </c>
       <c r="R2">
-        <f>ASINH('labels original'!R2)</f>
+        <f>ASINH(points!R2)</f>
         <v>7.9237837620441924</v>
       </c>
       <c r="S2">
-        <f>ASINH('labels original'!S2)</f>
+        <f>ASINH(points!S2)</f>
         <v>8.0805159832585893</v>
       </c>
       <c r="T2">
-        <f>ASINH('labels original'!T2)</f>
+        <f>ASINH(points!T2)</f>
         <v>8.2218973273379987</v>
       </c>
       <c r="U2">
-        <f>ASINH('labels original'!U2)</f>
+        <f>ASINH(points!U2)</f>
         <v>8.3492130985956248</v>
       </c>
       <c r="V2">
-        <f>ASINH('labels original'!V2)</f>
+        <f>ASINH(points!V2)</f>
         <v>8.4636805613748276</v>
       </c>
     </row>
@@ -2503,83 +2503,83 @@
         <v>30</v>
       </c>
       <c r="C3">
-        <f>ASINH('labels original'!C3)</f>
+        <f>ASINH(points!C3)</f>
         <v>0</v>
       </c>
       <c r="D3">
-        <f>ASINH('labels original'!D3)</f>
+        <f>ASINH(points!D3)</f>
         <v>1.8341696894735231</v>
       </c>
       <c r="E3">
-        <f>ASINH('labels original'!E3)</f>
+        <f>ASINH(points!E3)</f>
         <v>4.0622949474205203</v>
       </c>
       <c r="F3">
-        <f>ASINH('labels original'!F3)</f>
+        <f>ASINH(points!F3)</f>
         <v>5.023271426129658</v>
       </c>
       <c r="G3">
-        <f>ASINH('labels original'!G3)</f>
+        <f>ASINH(points!G3)</f>
         <v>5.6555716760111876</v>
       </c>
       <c r="H3">
-        <f>ASINH('labels original'!H3)</f>
+        <f>ASINH(points!H3)</f>
         <v>6.1138492146856009</v>
       </c>
       <c r="I3">
-        <f>ASINH('labels original'!I3)</f>
+        <f>ASINH(points!I3)</f>
         <v>6.4766577834647698</v>
       </c>
       <c r="J3">
-        <f>ASINH('labels original'!J3)</f>
+        <f>ASINH(points!J3)</f>
         <v>6.7818661110530121</v>
       </c>
       <c r="K3">
-        <f>ASINH('labels original'!K3)</f>
+        <f>ASINH(points!K3)</f>
         <v>7.0470769844969015</v>
       </c>
       <c r="L3">
-        <f>ASINH('labels original'!L3)</f>
+        <f>ASINH(points!L3)</f>
         <v>7.2818942530697424</v>
       </c>
       <c r="M3">
-        <f>ASINH('labels original'!M3)</f>
+        <f>ASINH(points!M3)</f>
         <v>7.488720851654759</v>
       </c>
       <c r="N3">
-        <f>ASINH('labels original'!N3)</f>
+        <f>ASINH(points!N3)</f>
         <v>7.6680896988656304</v>
       </c>
       <c r="O3">
-        <f>ASINH('labels original'!O3)</f>
+        <f>ASINH(points!O3)</f>
         <v>7.8267469789755291</v>
       </c>
       <c r="P3">
-        <f>ASINH('labels original'!P3)</f>
+        <f>ASINH(points!P3)</f>
         <v>7.9742709061812018</v>
       </c>
       <c r="Q3">
-        <f>ASINH('labels original'!Q3)</f>
+        <f>ASINH(points!Q3)</f>
         <v>8.1309195029826409</v>
       </c>
       <c r="R3">
-        <f>ASINH('labels original'!R3)</f>
+        <f>ASINH(points!R3)</f>
         <v>8.3243204070760743</v>
       </c>
       <c r="S3">
-        <f>ASINH('labels original'!S3)</f>
+        <f>ASINH(points!S3)</f>
         <v>8.5412508063217807</v>
       </c>
       <c r="T3">
-        <f>ASINH('labels original'!T3)</f>
+        <f>ASINH(points!T3)</f>
         <v>8.7354670581375586</v>
       </c>
       <c r="U3">
-        <f>ASINH('labels original'!U3)</f>
+        <f>ASINH(points!U3)</f>
         <v>8.8914213723409059</v>
       </c>
       <c r="V3">
-        <f>ASINH('labels original'!V3)</f>
+        <f>ASINH(points!V3)</f>
         <v>9.0217071049374482</v>
       </c>
     </row>
@@ -2591,83 +2591,83 @@
         <v>120</v>
       </c>
       <c r="C4">
-        <f>ASINH('labels original'!C4)</f>
+        <f>ASINH(points!C4)</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f>ASINH('labels original'!D4)</f>
+        <f>ASINH(points!D4)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>ASINH('labels original'!E4)</f>
+        <f>ASINH(points!E4)</f>
         <v>1.9275706915717483</v>
       </c>
       <c r="F4">
-        <f>ASINH('labels original'!F4)</f>
+        <f>ASINH(points!F4)</f>
         <v>3.6929951147326996</v>
       </c>
       <c r="G4">
-        <f>ASINH('labels original'!G4)</f>
+        <f>ASINH(points!G4)</f>
         <v>4.9674664489204945</v>
       </c>
       <c r="H4">
-        <f>ASINH('labels original'!H4)</f>
+        <f>ASINH(points!H4)</f>
         <v>5.7524024559622129</v>
       </c>
       <c r="I4">
-        <f>ASINH('labels original'!I4)</f>
+        <f>ASINH(points!I4)</f>
         <v>6.2695725642761531</v>
       </c>
       <c r="J4">
-        <f>ASINH('labels original'!J4)</f>
+        <f>ASINH(points!J4)</f>
         <v>6.6833025507927433</v>
       </c>
       <c r="K4">
-        <f>ASINH('labels original'!K4)</f>
+        <f>ASINH(points!K4)</f>
         <v>7.1043290092985059</v>
       </c>
       <c r="L4">
-        <f>ASINH('labels original'!L4)</f>
+        <f>ASINH(points!L4)</f>
         <v>7.5165114650998071</v>
       </c>
       <c r="M4">
-        <f>ASINH('labels original'!M4)</f>
+        <f>ASINH(points!M4)</f>
         <v>7.854945436945707</v>
       </c>
       <c r="N4">
-        <f>ASINH('labels original'!N4)</f>
+        <f>ASINH(points!N4)</f>
         <v>8.173448103027054</v>
       </c>
       <c r="O4">
-        <f>ASINH('labels original'!O4)</f>
+        <f>ASINH(points!O4)</f>
         <v>8.5006942638624547</v>
       </c>
       <c r="P4">
-        <f>ASINH('labels original'!P4)</f>
+        <f>ASINH(points!P4)</f>
         <v>8.788209762901392</v>
       </c>
       <c r="Q4">
-        <f>ASINH('labels original'!Q4)</f>
+        <f>ASINH(points!Q4)</f>
         <v>9.079879205856308</v>
       </c>
       <c r="R4">
-        <f>ASINH('labels original'!R4)</f>
+        <f>ASINH(points!R4)</f>
         <v>9.4459050868629522</v>
       </c>
       <c r="S4">
-        <f>ASINH('labels original'!S4)</f>
+        <f>ASINH(points!S4)</f>
         <v>9.8697108973646372</v>
       </c>
       <c r="T4">
-        <f>ASINH('labels original'!T4)</f>
+        <f>ASINH(points!T4)</f>
         <v>10.206743048805365</v>
       </c>
       <c r="U4">
-        <f>ASINH('labels original'!U4)</f>
+        <f>ASINH(points!U4)</f>
         <v>10.684746579643516</v>
       </c>
       <c r="V4">
-        <f>ASINH('labels original'!V4)</f>
+        <f>ASINH(points!V4)</f>
         <v>11.091260282984631</v>
       </c>
     </row>
@@ -2679,83 +2679,83 @@
         <v>166.66667000000001</v>
       </c>
       <c r="C5">
-        <f>ASINH('labels original'!C5)</f>
+        <f>ASINH(points!C5)</f>
         <v>2.4373816681315533E-3</v>
       </c>
       <c r="D5">
-        <f>ASINH('labels original'!D5)</f>
+        <f>ASINH(points!D5)</f>
         <v>1.2410115030540783</v>
       </c>
       <c r="E5">
-        <f>ASINH('labels original'!E5)</f>
+        <f>ASINH(points!E5)</f>
         <v>2.2663245935488581</v>
       </c>
       <c r="F5">
-        <f>ASINH('labels original'!F5)</f>
+        <f>ASINH(points!F5)</f>
         <v>3.3938691041039672</v>
       </c>
       <c r="G5">
-        <f>ASINH('labels original'!G5)</f>
+        <f>ASINH(points!G5)</f>
         <v>4.8221744403685607</v>
       </c>
       <c r="H5">
-        <f>ASINH('labels original'!H5)</f>
+        <f>ASINH(points!H5)</f>
         <v>5.7263967341438855</v>
       </c>
       <c r="I5">
-        <f>ASINH('labels original'!I5)</f>
+        <f>ASINH(points!I5)</f>
         <v>6.3444838260949412</v>
       </c>
       <c r="J5">
-        <f>ASINH('labels original'!J5)</f>
+        <f>ASINH(points!J5)</f>
         <v>6.8823068468241102</v>
       </c>
       <c r="K5">
-        <f>ASINH('labels original'!K5)</f>
+        <f>ASINH(points!K5)</f>
         <v>7.2786562379945945</v>
       </c>
       <c r="L5">
-        <f>ASINH('labels original'!L5)</f>
+        <f>ASINH(points!L5)</f>
         <v>7.5054981696489582</v>
       </c>
       <c r="M5">
-        <f>ASINH('labels original'!M5)</f>
+        <f>ASINH(points!M5)</f>
         <v>7.9458889731721367</v>
       </c>
       <c r="N5">
-        <f>ASINH('labels original'!N5)</f>
+        <f>ASINH(points!N5)</f>
         <v>8.1831700040050066</v>
       </c>
       <c r="O5">
-        <f>ASINH('labels original'!O5)</f>
+        <f>ASINH(points!O5)</f>
         <v>8.5582143554696746</v>
       </c>
       <c r="P5">
-        <f>ASINH('labels original'!P5)</f>
+        <f>ASINH(points!P5)</f>
         <v>8.8893813777666111</v>
       </c>
       <c r="Q5">
-        <f>ASINH('labels original'!Q5)</f>
+        <f>ASINH(points!Q5)</f>
         <v>9.3206353799866477</v>
       </c>
       <c r="R5">
-        <f>ASINH('labels original'!R5)</f>
+        <f>ASINH(points!R5)</f>
         <v>9.7357201447962698</v>
       </c>
       <c r="S5">
-        <f>ASINH('labels original'!S5)</f>
+        <f>ASINH(points!S5)</f>
         <v>10.469598915748064</v>
       </c>
       <c r="T5">
-        <f>ASINH('labels original'!T5)</f>
+        <f>ASINH(points!T5)</f>
         <v>10.898949270250268</v>
       </c>
       <c r="U5">
-        <f>ASINH('labels original'!U5)</f>
+        <f>ASINH(points!U5)</f>
         <v>11.422990572199403</v>
       </c>
       <c r="V5">
-        <f>ASINH('labels original'!V5)</f>
+        <f>ASINH(points!V5)</f>
         <v>11.870078649631965</v>
       </c>
     </row>
@@ -2767,83 +2767,83 @@
         <v>36.666670000000003</v>
       </c>
       <c r="C6">
-        <f>ASINH('labels original'!C6)</f>
+        <f>ASINH(points!C6)</f>
         <v>0</v>
       </c>
       <c r="D6">
-        <f>ASINH('labels original'!D6)</f>
+        <f>ASINH(points!D6)</f>
         <v>4.7722035784432117</v>
       </c>
       <c r="E6">
-        <f>ASINH('labels original'!E6)</f>
+        <f>ASINH(points!E6)</f>
         <v>5.5814395377638801</v>
       </c>
       <c r="F6">
-        <f>ASINH('labels original'!F6)</f>
+        <f>ASINH(points!F6)</f>
         <v>6.0933535233161047</v>
       </c>
       <c r="G6">
-        <f>ASINH('labels original'!G6)</f>
+        <f>ASINH(points!G6)</f>
         <v>6.4774766154553705</v>
       </c>
       <c r="H6">
-        <f>ASINH('labels original'!H6)</f>
+        <f>ASINH(points!H6)</f>
         <v>6.8159068284717863</v>
       </c>
       <c r="I6">
-        <f>ASINH('labels original'!I6)</f>
+        <f>ASINH(points!I6)</f>
         <v>7.1446785160997237</v>
       </c>
       <c r="J6">
-        <f>ASINH('labels original'!J6)</f>
+        <f>ASINH(points!J6)</f>
         <v>7.4338104298277523</v>
       </c>
       <c r="K6">
-        <f>ASINH('labels original'!K6)</f>
+        <f>ASINH(points!K6)</f>
         <v>7.6786844129856719</v>
       </c>
       <c r="L6">
-        <f>ASINH('labels original'!L6)</f>
+        <f>ASINH(points!L6)</f>
         <v>7.9110317501778296</v>
       </c>
       <c r="M6">
-        <f>ASINH('labels original'!M6)</f>
+        <f>ASINH(points!M6)</f>
         <v>8.150710051651739</v>
       </c>
       <c r="N6">
-        <f>ASINH('labels original'!N6)</f>
+        <f>ASINH(points!N6)</f>
         <v>8.4080402749468952</v>
       </c>
       <c r="O6">
-        <f>ASINH('labels original'!O6)</f>
+        <f>ASINH(points!O6)</f>
         <v>8.7052229032387807</v>
       </c>
       <c r="P6">
-        <f>ASINH('labels original'!P6)</f>
+        <f>ASINH(points!P6)</f>
         <v>9.0358054575579327</v>
       </c>
       <c r="Q6">
-        <f>ASINH('labels original'!Q6)</f>
+        <f>ASINH(points!Q6)</f>
         <v>9.3438594501830465</v>
       </c>
       <c r="R6">
-        <f>ASINH('labels original'!R6)</f>
+        <f>ASINH(points!R6)</f>
         <v>9.6372043405488927</v>
       </c>
       <c r="S6">
-        <f>ASINH('labels original'!S6)</f>
+        <f>ASINH(points!S6)</f>
         <v>9.9708097093490533</v>
       </c>
       <c r="T6">
-        <f>ASINH('labels original'!T6)</f>
+        <f>ASINH(points!T6)</f>
         <v>10.30792042358536</v>
       </c>
       <c r="U6">
-        <f>ASINH('labels original'!U6)</f>
+        <f>ASINH(points!U6)</f>
         <v>10.599821026470607</v>
       </c>
       <c r="V6">
-        <f>ASINH('labels original'!V6)</f>
+        <f>ASINH(points!V6)</f>
         <v>10.840245152363995</v>
       </c>
     </row>
@@ -2855,83 +2855,83 @@
         <v>36.666670000000003</v>
       </c>
       <c r="C7">
-        <f>ASINH('labels original'!C7)</f>
+        <f>ASINH(points!C7)</f>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>ASINH('labels original'!D7)</f>
+        <f>ASINH(points!D7)</f>
         <v>4.0636840863972719</v>
       </c>
       <c r="E7">
-        <f>ASINH('labels original'!E7)</f>
+        <f>ASINH(points!E7)</f>
         <v>5.0177231243477243</v>
       </c>
       <c r="F7">
-        <f>ASINH('labels original'!F7)</f>
+        <f>ASINH(points!F7)</f>
         <v>5.6197621517170466</v>
       </c>
       <c r="G7">
-        <f>ASINH('labels original'!G7)</f>
+        <f>ASINH(points!G7)</f>
         <v>6.039508507992541</v>
       </c>
       <c r="H7">
-        <f>ASINH('labels original'!H7)</f>
+        <f>ASINH(points!H7)</f>
         <v>6.3640234434433758</v>
       </c>
       <c r="I7">
-        <f>ASINH('labels original'!I7)</f>
+        <f>ASINH(points!I7)</f>
         <v>6.6397613766202674</v>
       </c>
       <c r="J7">
-        <f>ASINH('labels original'!J7)</f>
+        <f>ASINH(points!J7)</f>
         <v>6.8641572296819495</v>
       </c>
       <c r="K7">
-        <f>ASINH('labels original'!K7)</f>
+        <f>ASINH(points!K7)</f>
         <v>7.0502674528232445</v>
       </c>
       <c r="L7">
-        <f>ASINH('labels original'!L7)</f>
+        <f>ASINH(points!L7)</f>
         <v>7.2500981131266258</v>
       </c>
       <c r="M7">
-        <f>ASINH('labels original'!M7)</f>
+        <f>ASINH(points!M7)</f>
         <v>7.4679208569772246</v>
       </c>
       <c r="N7">
-        <f>ASINH('labels original'!N7)</f>
+        <f>ASINH(points!N7)</f>
         <v>7.6767323953173374</v>
       </c>
       <c r="O7">
-        <f>ASINH('labels original'!O7)</f>
+        <f>ASINH(points!O7)</f>
         <v>7.8819249774138145</v>
       </c>
       <c r="P7">
-        <f>ASINH('labels original'!P7)</f>
+        <f>ASINH(points!P7)</f>
         <v>8.098886945924356</v>
       </c>
       <c r="Q7">
-        <f>ASINH('labels original'!Q7)</f>
+        <f>ASINH(points!Q7)</f>
         <v>8.3436887132884276</v>
       </c>
       <c r="R7">
-        <f>ASINH('labels original'!R7)</f>
+        <f>ASINH(points!R7)</f>
         <v>8.5886763264133226</v>
       </c>
       <c r="S7">
-        <f>ASINH('labels original'!S7)</f>
+        <f>ASINH(points!S7)</f>
         <v>8.7675570991181022</v>
       </c>
       <c r="T7">
-        <f>ASINH('labels original'!T7)</f>
+        <f>ASINH(points!T7)</f>
         <v>8.8935768950590113</v>
       </c>
       <c r="U7">
-        <f>ASINH('labels original'!U7)</f>
+        <f>ASINH(points!U7)</f>
         <v>9.0173280367091255</v>
       </c>
       <c r="V7">
-        <f>ASINH('labels original'!V7)</f>
+        <f>ASINH(points!V7)</f>
         <v>9.1409371077675505</v>
       </c>
     </row>
@@ -2943,83 +2943,83 @@
         <v>70</v>
       </c>
       <c r="C8">
-        <f>ASINH('labels original'!C8)</f>
+        <f>ASINH(points!C8)</f>
         <v>0</v>
       </c>
       <c r="D8">
-        <f>ASINH('labels original'!D8)</f>
+        <f>ASINH(points!D8)</f>
         <v>5.5309915583665035</v>
       </c>
       <c r="E8">
-        <f>ASINH('labels original'!E8)</f>
+        <f>ASINH(points!E8)</f>
         <v>6.4914478450057365</v>
       </c>
       <c r="F8">
-        <f>ASINH('labels original'!F8)</f>
+        <f>ASINH(points!F8)</f>
         <v>7.092922271697045</v>
       </c>
       <c r="G8">
-        <f>ASINH('labels original'!G8)</f>
+        <f>ASINH(points!G8)</f>
         <v>7.5361175816449046</v>
       </c>
       <c r="H8">
-        <f>ASINH('labels original'!H8)</f>
+        <f>ASINH(points!H8)</f>
         <v>7.9669169444725974</v>
       </c>
       <c r="I8">
-        <f>ASINH('labels original'!I8)</f>
+        <f>ASINH(points!I8)</f>
         <v>8.3641628247012019</v>
       </c>
       <c r="J8">
-        <f>ASINH('labels original'!J8)</f>
+        <f>ASINH(points!J8)</f>
         <v>8.6546797453110713</v>
       </c>
       <c r="K8">
-        <f>ASINH('labels original'!K8)</f>
+        <f>ASINH(points!K8)</f>
         <v>8.9179064960854042</v>
       </c>
       <c r="L8">
-        <f>ASINH('labels original'!L8)</f>
+        <f>ASINH(points!L8)</f>
         <v>9.1913430999032979</v>
       </c>
       <c r="M8">
-        <f>ASINH('labels original'!M8)</f>
+        <f>ASINH(points!M8)</f>
         <v>9.4696063408493991</v>
       </c>
       <c r="N8">
-        <f>ASINH('labels original'!N8)</f>
+        <f>ASINH(points!N8)</f>
         <v>9.7049320007711746</v>
       </c>
       <c r="O8">
-        <f>ASINH('labels original'!O8)</f>
+        <f>ASINH(points!O8)</f>
         <v>9.8585229131036165</v>
       </c>
       <c r="P8">
-        <f>ASINH('labels original'!P8)</f>
+        <f>ASINH(points!P8)</f>
         <v>10.016127256368756</v>
       </c>
       <c r="Q8">
-        <f>ASINH('labels original'!Q8)</f>
+        <f>ASINH(points!Q8)</f>
         <v>10.19746219762945</v>
       </c>
       <c r="R8">
-        <f>ASINH('labels original'!R8)</f>
+        <f>ASINH(points!R8)</f>
         <v>10.393249205007416</v>
       </c>
       <c r="S8">
-        <f>ASINH('labels original'!S8)</f>
+        <f>ASINH(points!S8)</f>
         <v>10.636138739915697</v>
       </c>
       <c r="T8">
-        <f>ASINH('labels original'!T8)</f>
+        <f>ASINH(points!T8)</f>
         <v>10.871630682307689</v>
       </c>
       <c r="U8">
-        <f>ASINH('labels original'!U8)</f>
+        <f>ASINH(points!U8)</f>
         <v>11.111744079623369</v>
       </c>
       <c r="V8">
-        <f>ASINH('labels original'!V8)</f>
+        <f>ASINH(points!V8)</f>
         <v>11.47755029993</v>
       </c>
     </row>
@@ -3031,83 +3031,83 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <f>ASINH('labels original'!C9)</f>
+        <f>ASINH(points!C9)</f>
         <v>0</v>
       </c>
       <c r="D9">
-        <f>ASINH('labels original'!D9)</f>
+        <f>ASINH(points!D9)</f>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>ASINH('labels original'!E9)</f>
+        <f>ASINH(points!E9)</f>
         <v>0.60308225838397167</v>
       </c>
       <c r="F9">
-        <f>ASINH('labels original'!F9)</f>
+        <f>ASINH(points!F9)</f>
         <v>3.8034254282130617</v>
       </c>
       <c r="G9">
-        <f>ASINH('labels original'!G9)</f>
+        <f>ASINH(points!G9)</f>
         <v>4.5871260631270774</v>
       </c>
       <c r="H9">
-        <f>ASINH('labels original'!H9)</f>
+        <f>ASINH(points!H9)</f>
         <v>5.1107305539203072</v>
       </c>
       <c r="I9">
-        <f>ASINH('labels original'!I9)</f>
+        <f>ASINH(points!I9)</f>
         <v>5.5293676152207816</v>
       </c>
       <c r="J9">
-        <f>ASINH('labels original'!J9)</f>
+        <f>ASINH(points!J9)</f>
         <v>5.8889382956340013</v>
       </c>
       <c r="K9">
-        <f>ASINH('labels original'!K9)</f>
+        <f>ASINH(points!K9)</f>
         <v>6.2049993631876745</v>
       </c>
       <c r="L9">
-        <f>ASINH('labels original'!L9)</f>
+        <f>ASINH(points!L9)</f>
         <v>6.4856339278359387</v>
       </c>
       <c r="M9">
-        <f>ASINH('labels original'!M9)</f>
+        <f>ASINH(points!M9)</f>
         <v>6.7374272838866691</v>
       </c>
       <c r="N9">
-        <f>ASINH('labels original'!N9)</f>
+        <f>ASINH(points!N9)</f>
         <v>6.9655321605637095</v>
       </c>
       <c r="O9">
-        <f>ASINH('labels original'!O9)</f>
+        <f>ASINH(points!O9)</f>
         <v>7.1739466107616252</v>
       </c>
       <c r="P9">
-        <f>ASINH('labels original'!P9)</f>
+        <f>ASINH(points!P9)</f>
         <v>7.3657676699921968</v>
       </c>
       <c r="Q9">
-        <f>ASINH('labels original'!Q9)</f>
+        <f>ASINH(points!Q9)</f>
         <v>7.5422752947207723</v>
       </c>
       <c r="R9">
-        <f>ASINH('labels original'!R9)</f>
+        <f>ASINH(points!R9)</f>
         <v>7.7034233784122881</v>
       </c>
       <c r="S9">
-        <f>ASINH('labels original'!S9)</f>
+        <f>ASINH(points!S9)</f>
         <v>7.8498768429937877</v>
       </c>
       <c r="T9">
-        <f>ASINH('labels original'!T9)</f>
+        <f>ASINH(points!T9)</f>
         <v>7.9826503672292572</v>
       </c>
       <c r="U9">
-        <f>ASINH('labels original'!U9)</f>
+        <f>ASINH(points!U9)</f>
         <v>8.1028283670560999</v>
       </c>
       <c r="V9">
-        <f>ASINH('labels original'!V9)</f>
+        <f>ASINH(points!V9)</f>
         <v>8.2114384407689034</v>
       </c>
     </row>
@@ -3119,83 +3119,83 @@
         <v>213.33332999999999</v>
       </c>
       <c r="C10">
-        <f>ASINH('labels original'!C10)</f>
+        <f>ASINH(points!C10)</f>
         <v>0</v>
       </c>
       <c r="D10">
-        <f>ASINH('labels original'!D10)</f>
+        <f>ASINH(points!D10)</f>
         <v>1.6171571531495301</v>
       </c>
       <c r="E10">
-        <f>ASINH('labels original'!E10)</f>
+        <f>ASINH(points!E10)</f>
         <v>2.5766543354402782</v>
       </c>
       <c r="F10">
-        <f>ASINH('labels original'!F10)</f>
+        <f>ASINH(points!F10)</f>
         <v>3.4774668080492539</v>
       </c>
       <c r="G10">
-        <f>ASINH('labels original'!G10)</f>
+        <f>ASINH(points!G10)</f>
         <v>4.422776610358456</v>
       </c>
       <c r="H10">
-        <f>ASINH('labels original'!H10)</f>
+        <f>ASINH(points!H10)</f>
         <v>5.5060458541547401</v>
       </c>
       <c r="I10">
-        <f>ASINH('labels original'!I10)</f>
+        <f>ASINH(points!I10)</f>
         <v>6.2669687447591507</v>
       </c>
       <c r="J10">
-        <f>ASINH('labels original'!J10)</f>
+        <f>ASINH(points!J10)</f>
         <v>6.8815037820953435</v>
       </c>
       <c r="K10">
-        <f>ASINH('labels original'!K10)</f>
+        <f>ASINH(points!K10)</f>
         <v>7.3352798561696773</v>
       </c>
       <c r="L10">
-        <f>ASINH('labels original'!L10)</f>
+        <f>ASINH(points!L10)</f>
         <v>7.7819406043903392</v>
       </c>
       <c r="M10">
-        <f>ASINH('labels original'!M10)</f>
+        <f>ASINH(points!M10)</f>
         <v>7.9857850821085279</v>
       </c>
       <c r="N10">
-        <f>ASINH('labels original'!N10)</f>
+        <f>ASINH(points!N10)</f>
         <v>8.4548610496840553</v>
       </c>
       <c r="O10">
-        <f>ASINH('labels original'!O10)</f>
+        <f>ASINH(points!O10)</f>
         <v>8.7871493690134255</v>
       </c>
       <c r="P10">
-        <f>ASINH('labels original'!P10)</f>
+        <f>ASINH(points!P10)</f>
         <v>9.0920440032137684</v>
       </c>
       <c r="Q10">
-        <f>ASINH('labels original'!Q10)</f>
+        <f>ASINH(points!Q10)</f>
         <v>9.6166852982966624</v>
       </c>
       <c r="R10">
-        <f>ASINH('labels original'!R10)</f>
+        <f>ASINH(points!R10)</f>
         <v>9.8487429627248861</v>
       </c>
       <c r="S10">
-        <f>ASINH('labels original'!S10)</f>
+        <f>ASINH(points!S10)</f>
         <v>10.137038619228369</v>
       </c>
       <c r="T10">
-        <f>ASINH('labels original'!T10)</f>
+        <f>ASINH(points!T10)</f>
         <v>10.438076828043856</v>
       </c>
       <c r="U10">
-        <f>ASINH('labels original'!U10)</f>
+        <f>ASINH(points!U10)</f>
         <v>10.701779514246446</v>
       </c>
       <c r="V10">
-        <f>ASINH('labels original'!V10)</f>
+        <f>ASINH(points!V10)</f>
         <v>10.903752076728788</v>
       </c>
     </row>
@@ -3207,83 +3207,83 @@
         <v>13.3</v>
       </c>
       <c r="C11">
-        <f>ASINH('labels original'!C11)</f>
+        <f>ASINH(points!C11)</f>
         <v>0</v>
       </c>
       <c r="D11">
-        <f>ASINH('labels original'!D11)</f>
+        <f>ASINH(points!D11)</f>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>ASINH('labels original'!E11)</f>
+        <f>ASINH(points!E11)</f>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>ASINH('labels original'!F11)</f>
+        <f>ASINH(points!F11)</f>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>ASINH('labels original'!G11)</f>
+        <f>ASINH(points!G11)</f>
         <v>0</v>
       </c>
       <c r="H11">
-        <f>ASINH('labels original'!H11)</f>
+        <f>ASINH(points!H11)</f>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>ASINH('labels original'!I11)</f>
+        <f>ASINH(points!I11)</f>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>ASINH('labels original'!J11)</f>
+        <f>ASINH(points!J11)</f>
         <v>0</v>
       </c>
       <c r="K11">
-        <f>ASINH('labels original'!K11)</f>
+        <f>ASINH(points!K11)</f>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>ASINH('labels original'!L11)</f>
+        <f>ASINH(points!L11)</f>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>ASINH('labels original'!M11)</f>
+        <f>ASINH(points!M11)</f>
         <v>0</v>
       </c>
       <c r="N11">
-        <f>ASINH('labels original'!N11)</f>
+        <f>ASINH(points!N11)</f>
         <v>0</v>
       </c>
       <c r="O11">
-        <f>ASINH('labels original'!O11)</f>
+        <f>ASINH(points!O11)</f>
         <v>5.3148087314586947</v>
       </c>
       <c r="P11">
-        <f>ASINH('labels original'!P11)</f>
+        <f>ASINH(points!P11)</f>
         <v>6.3088328541792871</v>
       </c>
       <c r="Q11">
-        <f>ASINH('labels original'!Q11)</f>
+        <f>ASINH(points!Q11)</f>
         <v>6.956674590801069</v>
       </c>
       <c r="R11">
-        <f>ASINH('labels original'!R11)</f>
+        <f>ASINH(points!R11)</f>
         <v>7.4575476618039609</v>
       </c>
       <c r="S11">
-        <f>ASINH('labels original'!S11)</f>
+        <f>ASINH(points!S11)</f>
         <v>7.8609522433417922</v>
       </c>
       <c r="T11">
-        <f>ASINH('labels original'!T11)</f>
+        <f>ASINH(points!T11)</f>
         <v>8.1893991026453286</v>
       </c>
       <c r="U11">
-        <f>ASINH('labels original'!U11)</f>
+        <f>ASINH(points!U11)</f>
         <v>8.4575680431355078</v>
       </c>
       <c r="V11">
-        <f>ASINH('labels original'!V11)</f>
+        <f>ASINH(points!V11)</f>
         <v>8.6773289996057468</v>
       </c>
     </row>
@@ -3295,83 +3295,83 @@
         <v>13.33333</v>
       </c>
       <c r="C12">
-        <f>ASINH('labels original'!C12)</f>
+        <f>ASINH(points!C12)</f>
         <v>0</v>
       </c>
       <c r="D12">
-        <f>ASINH('labels original'!D12)</f>
+        <f>ASINH(points!D12)</f>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>ASINH('labels original'!E12)</f>
+        <f>ASINH(points!E12)</f>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>ASINH('labels original'!F12)</f>
+        <f>ASINH(points!F12)</f>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>ASINH('labels original'!G12)</f>
+        <f>ASINH(points!G12)</f>
         <v>0</v>
       </c>
       <c r="H12">
-        <f>ASINH('labels original'!H12)</f>
+        <f>ASINH(points!H12)</f>
         <v>0</v>
       </c>
       <c r="I12">
-        <f>ASINH('labels original'!I12)</f>
+        <f>ASINH(points!I12)</f>
         <v>0</v>
       </c>
       <c r="J12">
-        <f>ASINH('labels original'!J12)</f>
+        <f>ASINH(points!J12)</f>
         <v>0</v>
       </c>
       <c r="K12">
-        <f>ASINH('labels original'!K12)</f>
+        <f>ASINH(points!K12)</f>
         <v>0</v>
       </c>
       <c r="L12">
-        <f>ASINH('labels original'!L12)</f>
+        <f>ASINH(points!L12)</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>ASINH('labels original'!M12)</f>
+        <f>ASINH(points!M12)</f>
         <v>0</v>
       </c>
       <c r="N12">
-        <f>ASINH('labels original'!N12)</f>
+        <f>ASINH(points!N12)</f>
         <v>0</v>
       </c>
       <c r="O12">
-        <f>ASINH('labels original'!O12)</f>
+        <f>ASINH(points!O12)</f>
         <v>9.9380857854361082</v>
       </c>
       <c r="P12">
-        <f>ASINH('labels original'!P12)</f>
+        <f>ASINH(points!P12)</f>
         <v>12.031493655554003</v>
       </c>
       <c r="Q12">
-        <f>ASINH('labels original'!Q12)</f>
+        <f>ASINH(points!Q12)</f>
         <v>12.875262955308409</v>
       </c>
       <c r="R12">
-        <f>ASINH('labels original'!R12)</f>
+        <f>ASINH(points!R12)</f>
         <v>13.461136058231094</v>
       </c>
       <c r="S12">
-        <f>ASINH('labels original'!S12)</f>
+        <f>ASINH(points!S12)</f>
         <v>13.90245696390531</v>
       </c>
       <c r="T12">
-        <f>ASINH('labels original'!T12)</f>
+        <f>ASINH(points!T12)</f>
         <v>14.245373815561207</v>
       </c>
       <c r="U12">
-        <f>ASINH('labels original'!U12)</f>
+        <f>ASINH(points!U12)</f>
         <v>14.519161674843312</v>
       </c>
       <c r="V12">
-        <f>ASINH('labels original'!V12)</f>
+        <f>ASINH(points!V12)</f>
         <v>14.741403413616492</v>
       </c>
     </row>

--- a/excel/Data_loader_spline_full_onehot_R1.xlsx
+++ b/excel/Data_loader_spline_full_onehot_R1.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai Zhuo\Desktop\Python\strainsensor\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B23214-C28E-42A9-BF34-885CD32E304F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F216C9-E155-43D5-955C-BBEE9254634C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3330" yWindow="2460" windowWidth="21690" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="gf20" sheetId="9" r:id="rId1"/>
-    <sheet name="cutoff" sheetId="10" r:id="rId2"/>
-    <sheet name="points" sheetId="8" r:id="rId3"/>
-    <sheet name="pointsarc" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
-    <sheet name="features" sheetId="2" r:id="rId6"/>
-    <sheet name="features_d" sheetId="6" r:id="rId7"/>
-    <sheet name="Substrate" sheetId="5" r:id="rId8"/>
+    <sheet name="gf20 no limits" sheetId="11" r:id="rId1"/>
+    <sheet name="gf20" sheetId="9" r:id="rId2"/>
+    <sheet name="cutoff" sheetId="10" r:id="rId3"/>
+    <sheet name="points" sheetId="8" r:id="rId4"/>
+    <sheet name="pointsarc" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
+    <sheet name="features" sheetId="2" r:id="rId7"/>
+    <sheet name="features_d" sheetId="6" r:id="rId8"/>
+    <sheet name="Substrate" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>CNT Mass Percentage</t>
   </si>
@@ -446,11 +447,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1947C92-690E-4EFA-A48C-57F520199439}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8220A106-59B8-4852-B05F-9E38DBE8030C}">
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,6 +1300,859 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1947C92-690E-4EFA-A48C-57F520199439}">
+  <dimension ref="A1:V20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4">
+        <v>11</v>
+      </c>
+      <c r="N1" s="4">
+        <v>12</v>
+      </c>
+      <c r="O1" s="4">
+        <v>13</v>
+      </c>
+      <c r="P1" s="4">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>15</v>
+      </c>
+      <c r="R1" s="4">
+        <v>16</v>
+      </c>
+      <c r="S1" s="4">
+        <v>17</v>
+      </c>
+      <c r="T1" s="4">
+        <v>18</v>
+      </c>
+      <c r="U1" s="4">
+        <v>19</v>
+      </c>
+      <c r="V1" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>4400</v>
+      </c>
+      <c r="D2">
+        <v>4400.0000000000127</v>
+      </c>
+      <c r="E2">
+        <v>2412.796732566776</v>
+      </c>
+      <c r="F2">
+        <v>2412.7967325667041</v>
+      </c>
+      <c r="G2">
+        <v>2412.7967325667041</v>
+      </c>
+      <c r="H2">
+        <v>2412.7967325665618</v>
+      </c>
+      <c r="I2">
+        <v>2412.7967325667041</v>
+      </c>
+      <c r="J2">
+        <v>19952.198695602019</v>
+      </c>
+      <c r="K2">
+        <v>19952.19869560287</v>
+      </c>
+      <c r="L2">
+        <v>19952.19869560287</v>
+      </c>
+      <c r="M2">
+        <v>19952.198695601739</v>
+      </c>
+      <c r="N2">
+        <v>19952.198695601739</v>
+      </c>
+      <c r="O2">
+        <v>19952.198695601739</v>
+      </c>
+      <c r="P2">
+        <v>51143.334743334213</v>
+      </c>
+      <c r="Q2">
+        <v>51143.334743335341</v>
+      </c>
+      <c r="R2">
+        <v>51143.334743333071</v>
+      </c>
+      <c r="S2">
+        <v>51143.334743333071</v>
+      </c>
+      <c r="T2">
+        <v>51143.334743333071</v>
+      </c>
+      <c r="U2">
+        <v>51143.334743333071</v>
+      </c>
+      <c r="V2">
+        <v>51143.334743333071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>511.86981186981183</v>
+      </c>
+      <c r="D3">
+        <v>511.86981186980063</v>
+      </c>
+      <c r="E3">
+        <v>511.86981186980063</v>
+      </c>
+      <c r="F3">
+        <v>4468.8339623318998</v>
+      </c>
+      <c r="G3">
+        <v>4468.8339623320417</v>
+      </c>
+      <c r="H3">
+        <v>5839.7683397680566</v>
+      </c>
+      <c r="I3">
+        <v>5839.7683397686251</v>
+      </c>
+      <c r="J3">
+        <v>8167.6641676642703</v>
+      </c>
+      <c r="K3">
+        <v>8167.6641676642703</v>
+      </c>
+      <c r="L3">
+        <v>11149.829300341031</v>
+      </c>
+      <c r="M3">
+        <v>11149.829300341031</v>
+      </c>
+      <c r="N3">
+        <v>13375.38407538432</v>
+      </c>
+      <c r="O3">
+        <v>13375.38407538432</v>
+      </c>
+      <c r="P3">
+        <v>10215.14371514513</v>
+      </c>
+      <c r="Q3">
+        <v>10215.14371514513</v>
+      </c>
+      <c r="R3">
+        <v>41416.8311663434</v>
+      </c>
+      <c r="S3">
+        <v>41416.8311663434</v>
+      </c>
+      <c r="T3">
+        <v>28486.675486678909</v>
+      </c>
+      <c r="U3">
+        <v>28486.675486683449</v>
+      </c>
+      <c r="V3">
+        <v>28486.675486683449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>120</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>108.24760824760919</v>
+      </c>
+      <c r="F4">
+        <v>402.06220206229659</v>
+      </c>
+      <c r="G4">
+        <v>1082.471935056333</v>
+      </c>
+      <c r="H4">
+        <v>1762.8881628883159</v>
+      </c>
+      <c r="I4">
+        <v>1530.9291309290529</v>
+      </c>
+      <c r="J4">
+        <v>2659.788680422253</v>
+      </c>
+      <c r="K4">
+        <v>4252.5816525801474</v>
+      </c>
+      <c r="L4">
+        <v>6757.7386577374909</v>
+      </c>
+      <c r="M4">
+        <v>4932.99463299536</v>
+      </c>
+      <c r="N4">
+        <v>8845.3696453734665</v>
+      </c>
+      <c r="O4">
+        <v>11288.637222728539</v>
+      </c>
+      <c r="P4">
+        <v>8041.2449412460774</v>
+      </c>
+      <c r="Q4">
+        <v>17938.16213817081</v>
+      </c>
+      <c r="R4">
+        <v>25206.135287735378</v>
+      </c>
+      <c r="S4">
+        <v>49097.913651057752</v>
+      </c>
+      <c r="T4">
+        <v>128505.2831553548</v>
+      </c>
+      <c r="U4">
+        <v>173118.47009088521</v>
+      </c>
+      <c r="V4">
+        <v>173118.47009084889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>166.66667000000001</v>
+      </c>
+      <c r="C5">
+        <v>18.072318072318069</v>
+      </c>
+      <c r="D5">
+        <v>18.072318072319678</v>
+      </c>
+      <c r="E5">
+        <v>72.289272289287609</v>
+      </c>
+      <c r="F5">
+        <v>180.72263855474449</v>
+      </c>
+      <c r="G5">
+        <v>867.46806506376117</v>
+      </c>
+      <c r="H5">
+        <v>1337.3469253059509</v>
+      </c>
+      <c r="I5">
+        <v>1951.809151808561</v>
+      </c>
+      <c r="J5">
+        <v>2963.858363858094</v>
+      </c>
+      <c r="K5">
+        <v>3759.0397590417979</v>
+      </c>
+      <c r="L5">
+        <v>3542.1722421745021</v>
+      </c>
+      <c r="M5">
+        <v>8801.2135012195358</v>
+      </c>
+      <c r="N5">
+        <v>4012.040175921356</v>
+      </c>
+      <c r="O5">
+        <v>14909.60868079128</v>
+      </c>
+      <c r="P5">
+        <v>17891.557254229159</v>
+      </c>
+      <c r="Q5">
+        <v>32801.188449420813</v>
+      </c>
+      <c r="R5">
+        <v>36506.06060602513</v>
+      </c>
+      <c r="S5">
+        <v>100210.79324451421</v>
+      </c>
+      <c r="T5">
+        <v>145933.8808337634</v>
+      </c>
+      <c r="U5">
+        <v>271084.2018576659</v>
+      </c>
+      <c r="V5">
+        <v>292770.93796423287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>36.666670000000003</v>
+      </c>
+      <c r="C6">
+        <v>3154.6423546423548</v>
+      </c>
+      <c r="D6">
+        <v>3154.6423546423339</v>
+      </c>
+      <c r="E6">
+        <v>5273.1854536290257</v>
+      </c>
+      <c r="F6">
+        <v>5273.1854536290257</v>
+      </c>
+      <c r="G6">
+        <v>5288.6647886646188</v>
+      </c>
+      <c r="H6">
+        <v>5288.6647886646188</v>
+      </c>
+      <c r="I6">
+        <v>12030.939930939439</v>
+      </c>
+      <c r="J6">
+        <v>12092.759514480351</v>
+      </c>
+      <c r="K6">
+        <v>12092.759514480351</v>
+      </c>
+      <c r="L6">
+        <v>21324.76352476715</v>
+      </c>
+      <c r="M6">
+        <v>21324.76352476715</v>
+      </c>
+      <c r="N6">
+        <v>28608.276108284372</v>
+      </c>
+      <c r="O6">
+        <v>28608.276108279821</v>
+      </c>
+      <c r="P6">
+        <v>89845.181109649275</v>
+      </c>
+      <c r="Q6">
+        <v>75618.632118648748</v>
+      </c>
+      <c r="R6">
+        <v>75618.632118639653</v>
+      </c>
+      <c r="S6">
+        <v>238299.20739925001</v>
+      </c>
+      <c r="T6">
+        <v>238299.20739917719</v>
+      </c>
+      <c r="U6">
+        <v>280205.62528872688</v>
+      </c>
+      <c r="V6">
+        <v>280205.6252886905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>36.666670000000003</v>
+      </c>
+      <c r="C7">
+        <v>1515.0015150015149</v>
+      </c>
+      <c r="D7">
+        <v>1515.0015150015149</v>
+      </c>
+      <c r="E7">
+        <v>3794.9924100149701</v>
+      </c>
+      <c r="F7">
+        <v>3794.9924100149701</v>
+      </c>
+      <c r="G7">
+        <v>3585.003585003506</v>
+      </c>
+      <c r="H7">
+        <v>3585.003585003506</v>
+      </c>
+      <c r="I7">
+        <v>5985.0059850060688</v>
+      </c>
+      <c r="J7">
+        <v>3854.9922900153888</v>
+      </c>
+      <c r="K7">
+        <v>3854.9922900153888</v>
+      </c>
+      <c r="L7">
+        <v>10380.01038001198</v>
+      </c>
+      <c r="M7">
+        <v>10380.01038001312</v>
+      </c>
+      <c r="N7">
+        <v>12075.01207501309</v>
+      </c>
+      <c r="O7">
+        <v>12075.01207501309</v>
+      </c>
+      <c r="P7">
+        <v>14204.9715900589</v>
+      </c>
+      <c r="Q7">
+        <v>40755.040755047958</v>
+      </c>
+      <c r="R7">
+        <v>40755.040755047958</v>
+      </c>
+      <c r="S7">
+        <v>12900.012900017829</v>
+      </c>
+      <c r="T7">
+        <v>12900.012900008731</v>
+      </c>
+      <c r="U7">
+        <v>31949.93610012261</v>
+      </c>
+      <c r="V7">
+        <v>31949.93610011807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <v>3038.588138588138</v>
+      </c>
+      <c r="D8">
+        <v>5594.8442103114357</v>
+      </c>
+      <c r="E8">
+        <v>6810.2963102961667</v>
+      </c>
+      <c r="F8">
+        <v>9414.8002147994703</v>
+      </c>
+      <c r="G8">
+        <v>8787.763924472074</v>
+      </c>
+      <c r="H8">
+        <v>18434.101934103641</v>
+      </c>
+      <c r="I8">
+        <v>20836.033636037431</v>
+      </c>
+      <c r="J8">
+        <v>18038.549322905059</v>
+      </c>
+      <c r="K8">
+        <v>25466.26346626454</v>
+      </c>
+      <c r="L8">
+        <v>32315.14461513143</v>
+      </c>
+      <c r="M8">
+        <v>56623.850923833743</v>
+      </c>
+      <c r="N8">
+        <v>28938.93553891758</v>
+      </c>
+      <c r="O8">
+        <v>43987.050525884108</v>
+      </c>
+      <c r="P8">
+        <v>50836.063636052131</v>
+      </c>
+      <c r="Q8">
+        <v>79196.220596204512</v>
+      </c>
+      <c r="R8">
+        <v>71382.493834989873</v>
+      </c>
+      <c r="S8">
+        <v>160128.77752873459</v>
+      </c>
+      <c r="T8">
+        <v>170739.7206396854</v>
+      </c>
+      <c r="U8">
+        <v>123472.4219552299</v>
+      </c>
+      <c r="V8">
+        <v>505466.74316698051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>2300</v>
+      </c>
+      <c r="D9">
+        <v>2300.0000000000041</v>
+      </c>
+      <c r="E9">
+        <v>3172.0729601042308</v>
+      </c>
+      <c r="F9">
+        <v>3172.0729601042308</v>
+      </c>
+      <c r="G9">
+        <v>3172.0729601041598</v>
+      </c>
+      <c r="H9">
+        <v>3172.072960104088</v>
+      </c>
+      <c r="I9">
+        <v>3172.072960104088</v>
+      </c>
+      <c r="J9">
+        <v>16910.413879171811</v>
+      </c>
+      <c r="K9">
+        <v>16910.413879172102</v>
+      </c>
+      <c r="L9">
+        <v>16910.413879172102</v>
+      </c>
+      <c r="M9">
+        <v>16910.41387917153</v>
+      </c>
+      <c r="N9">
+        <v>16910.413879172669</v>
+      </c>
+      <c r="O9">
+        <v>16910.41387917153</v>
+      </c>
+      <c r="P9">
+        <v>37447.79844779714</v>
+      </c>
+      <c r="Q9">
+        <v>37447.798447798283</v>
+      </c>
+      <c r="R9">
+        <v>37447.79844779714</v>
+      </c>
+      <c r="S9">
+        <v>37447.79844779941</v>
+      </c>
+      <c r="T9">
+        <v>37447.79844779714</v>
+      </c>
+      <c r="U9">
+        <v>37447.79844779714</v>
+      </c>
+      <c r="V9">
+        <v>37447.79844779714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>213.33332999999999</v>
+      </c>
+      <c r="C10">
+        <v>16.71301671301671</v>
+      </c>
+      <c r="D10">
+        <v>16.713316713312661</v>
+      </c>
+      <c r="E10">
+        <v>50.139350139364318</v>
+      </c>
+      <c r="F10">
+        <v>133.7043325913001</v>
+      </c>
+      <c r="G10">
+        <v>392.7568144862903</v>
+      </c>
+      <c r="H10">
+        <v>743.73121253742625</v>
+      </c>
+      <c r="I10">
+        <v>1487.466587466884</v>
+      </c>
+      <c r="J10">
+        <v>2640.6710406723728</v>
+      </c>
+      <c r="K10">
+        <v>2481.8964818985019</v>
+      </c>
+      <c r="L10">
+        <v>4470.7498646266686</v>
+      </c>
+      <c r="M10">
+        <v>543.17604317702717</v>
+      </c>
+      <c r="N10">
+        <v>7604.4530477747676</v>
+      </c>
+      <c r="O10">
+        <v>9359.3267703272431</v>
+      </c>
+      <c r="P10">
+        <v>10947.06967644925</v>
+      </c>
+      <c r="Q10">
+        <v>12075.202762389379</v>
+      </c>
+      <c r="R10">
+        <v>30459.640509616289</v>
+      </c>
+      <c r="S10">
+        <v>26657.36822129475</v>
+      </c>
+      <c r="T10">
+        <v>63501.456201411202</v>
+      </c>
+      <c r="U10">
+        <v>28412.242093836539</v>
+      </c>
+      <c r="V10">
+        <v>55153.258453210583</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>13.3</v>
+      </c>
+      <c r="C11">
+        <v>11.43510577472841</v>
+      </c>
+      <c r="D11">
+        <v>11.435105774728481</v>
+      </c>
+      <c r="E11">
+        <v>11.435105774728621</v>
+      </c>
+      <c r="F11">
+        <v>11.43510577472806</v>
+      </c>
+      <c r="G11">
+        <v>11.435105774728621</v>
+      </c>
+      <c r="H11">
+        <v>618.85299441985842</v>
+      </c>
+      <c r="I11">
+        <v>618.85299441985171</v>
+      </c>
+      <c r="J11">
+        <v>618.85299441986058</v>
+      </c>
+      <c r="K11">
+        <v>618.85299441986058</v>
+      </c>
+      <c r="L11">
+        <v>618.85299441982511</v>
+      </c>
+      <c r="M11">
+        <v>8686.9888756679356</v>
+      </c>
+      <c r="N11">
+        <v>8686.9888756679356</v>
+      </c>
+      <c r="O11">
+        <v>8686.9888756680775</v>
+      </c>
+      <c r="P11">
+        <v>8686.9888756680775</v>
+      </c>
+      <c r="Q11">
+        <v>8686.9888756677938</v>
+      </c>
+      <c r="R11">
+        <v>68949.05660377162</v>
+      </c>
+      <c r="S11">
+        <v>96702.488378450653</v>
+      </c>
+      <c r="T11">
+        <v>96702.488378450653</v>
+      </c>
+      <c r="U11">
+        <v>96702.488378450653</v>
+      </c>
+      <c r="V11">
+        <v>96702.488378450653</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>13.33333</v>
+      </c>
+      <c r="C12">
+        <v>8290.917490917489</v>
+      </c>
+      <c r="D12">
+        <v>8290.9174909175217</v>
+      </c>
+      <c r="E12">
+        <v>8290.9174909174508</v>
+      </c>
+      <c r="F12">
+        <v>8290.9174909173089</v>
+      </c>
+      <c r="G12">
+        <v>8290.9174909173089</v>
+      </c>
+      <c r="H12">
+        <v>64951.385097228347</v>
+      </c>
+      <c r="I12">
+        <v>64951.385097228922</v>
+      </c>
+      <c r="J12">
+        <v>64951.385097228922</v>
+      </c>
+      <c r="K12">
+        <v>64951.385097228922</v>
+      </c>
+      <c r="L12">
+        <v>64951.385097228922</v>
+      </c>
+      <c r="M12">
+        <v>131575.88927588679</v>
+      </c>
+      <c r="N12">
+        <v>131575.88927588219</v>
+      </c>
+      <c r="O12">
+        <v>131575.8892758913</v>
+      </c>
+      <c r="P12">
+        <v>131575.88927588219</v>
+      </c>
+      <c r="Q12">
+        <v>131575.88927588219</v>
+      </c>
+      <c r="R12">
+        <v>1000000</v>
+      </c>
+      <c r="S12">
+        <v>1000000</v>
+      </c>
+      <c r="T12">
+        <v>1000000</v>
+      </c>
+      <c r="U12">
+        <v>1000000</v>
+      </c>
+      <c r="V12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD80297-06E8-4687-95AF-96392F10D14E}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -1479,11 +2333,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" activeCellId="1" sqref="D34 F24"/>
     </sheetView>
   </sheetViews>
@@ -2332,7 +3186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V20"/>
   <sheetViews>
@@ -3405,7 +4259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T12"/>
   <sheetViews>
@@ -4165,7 +5019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
@@ -4525,7 +5379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -4624,7 +5478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
